--- a/Descriptive Statistics/Categorical/MA_announced_by_year.xlsx
+++ b/Descriptive Statistics/Categorical/MA_announced_by_year.xlsx
@@ -450,7 +450,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +466,7 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -506,7 +506,7 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -554,7 +554,7 @@
         <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -578,7 +578,7 @@
         <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>2022</v>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>2023</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>2024</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Descriptive Statistics/Categorical/MA_announced_by_year.xlsx
+++ b/Descriptive Statistics/Categorical/MA_announced_by_year.xlsx
@@ -450,7 +450,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +466,7 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>2017</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>2019</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>2020</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>2022</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>2023</v>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>2024</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
